--- a/src/formatos/Novedades/Reporte novedades.xlsx
+++ b/src/formatos/Novedades/Reporte novedades.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrés Olivares\Google Drive\Trabajos\Comsistelco\Sica - codensa\Formatos\Novedades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.valencia\Desktop\complementoSICA\complementosica\src\formatos\Novedades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67071C1C-20EA-4987-848C-7A1FF57F4628}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="685"/>
   </bookViews>
   <sheets>
     <sheet name="EnvioTerceros" sheetId="1" r:id="rId1"/>
@@ -29,9 +28,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t xml:space="preserve">Remitente </t>
-  </si>
   <si>
     <t>ORDEN</t>
   </si>
@@ -59,11 +55,14 @@
   <si>
     <t>ASIGNACION INCORRECTA</t>
   </si>
+  <si>
+    <t>Remitente</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,51 +411,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:G185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" customWidth="1"/>
-    <col min="6" max="6" width="42.109375" customWidth="1"/>
-    <col min="7" max="7" width="75.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="42.140625" customWidth="1"/>
+    <col min="7" max="7" width="75.85546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
       </c>
       <c r="B2">
         <v>331</v>
@@ -465,563 +462,564 @@
         <v>43692</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="4"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="4"/>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="4"/>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="4"/>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="4"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="4"/>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="4"/>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="4"/>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="4"/>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="4"/>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="4"/>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="4"/>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="4"/>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="4"/>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="4"/>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="4"/>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="4"/>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="4"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="4"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="4"/>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="4"/>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="4"/>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="4"/>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="4"/>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="4"/>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="4"/>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="4"/>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="4"/>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="4"/>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="4"/>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="4"/>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="4"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="4"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="4"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="4"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="4"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="4"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="4"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="4"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="4"/>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="4"/>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="4"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="4"/>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="4"/>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="4"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="4"/>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="4"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="4"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="4"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="4"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="4"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="4"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="4"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="4"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" s="4"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" s="4"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C105" s="4"/>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C106" s="4"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C107" s="4"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C108" s="4"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C109" s="4"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C110" s="4"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C111" s="4"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" s="4"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" s="4"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" s="4"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C115" s="4"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C116" s="4"/>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C117" s="4"/>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C118" s="4"/>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C119" s="4"/>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C120" s="4"/>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C121" s="4"/>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C122" s="4"/>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C123" s="4"/>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C124" s="4"/>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C125" s="4"/>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C126" s="4"/>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C127" s="4"/>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C128" s="4"/>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C129" s="4"/>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C130" s="4"/>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C131" s="4"/>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C132" s="4"/>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C133" s="4"/>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C134" s="4"/>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C135" s="4"/>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C136" s="4"/>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C137" s="4"/>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C138" s="4"/>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C139" s="4"/>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C140" s="4"/>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C141" s="4"/>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C142" s="4"/>
     </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C143" s="4"/>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C144" s="4"/>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C145" s="4"/>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C146" s="4"/>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C147" s="4"/>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C148" s="4"/>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C149" s="4"/>
     </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C150" s="4"/>
     </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C151" s="4"/>
     </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C152" s="4"/>
     </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C153" s="4"/>
     </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C154" s="4"/>
     </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C155" s="4"/>
     </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C156" s="4"/>
     </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C157" s="4"/>
     </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C158" s="4"/>
     </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C159" s="4"/>
     </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C160" s="4"/>
     </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C161" s="4"/>
     </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C162" s="4"/>
     </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C163" s="4"/>
     </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C164" s="4"/>
     </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C165" s="4"/>
     </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C166" s="4"/>
     </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C167" s="4"/>
     </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C168" s="4"/>
     </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C169" s="4"/>
     </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C170" s="4"/>
     </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C171" s="4"/>
     </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C172" s="4"/>
     </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C173" s="4"/>
     </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C174" s="4"/>
     </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C175" s="4"/>
     </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C176" s="4"/>
     </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C177" s="4"/>
     </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C178" s="4"/>
     </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C179" s="4"/>
     </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C180" s="4"/>
     </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C181" s="4"/>
     </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C182" s="4"/>
     </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C183" s="4"/>
     </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C184" s="4"/>
     </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C185" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>